--- a/composite.xlsx
+++ b/composite.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FASTAPI\iq_math_orginal\iq_math_orginal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\iq_math_orginal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D239449-9013-4984-8CF2-899FB9B10852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA48629E-A079-4F63-A88A-BE40C87DAA3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,13 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>topic_id</t>
-  </si>
-  <si>
-    <t>topic_name_uz</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>question_text_uz</t>
   </si>
@@ -64,6 +58,9 @@
   </si>
   <si>
     <t>text2_ru</t>
+  </si>
+  <si>
+    <t>question_type</t>
   </si>
 </sst>
 </file>
@@ -392,58 +389,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="104.28515625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1"/>
+      <c r="M1" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
